--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1626.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1626.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.134514420341854</v>
+        <v>0.8950971961021423</v>
       </c>
       <c r="B1">
-        <v>2.915089130385239</v>
+        <v>2.971071004867554</v>
       </c>
       <c r="C1">
-        <v>4.16193996875614</v>
+        <v>4.384921073913574</v>
       </c>
       <c r="D1">
-        <v>2.245097654211482</v>
+        <v>3.031518697738647</v>
       </c>
       <c r="E1">
-        <v>1.08268693706056</v>
+        <v>1.402795195579529</v>
       </c>
     </row>
   </sheetData>
